--- a/public/sample-files/sample_payments.xlsx
+++ b/public/sample-files/sample_payments.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">EmpId</t>
+  </si>
   <si>
     <t xml:space="preserve">Employee</t>
   </si>
@@ -128,13 +131,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -154,51 +165,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.11"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C2" s="3" t="n">
+        <v>3400.56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>2900</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>3300</v>
       </c>
     </row>

--- a/public/sample-files/sample_payments.xlsx
+++ b/public/sample-files/sample_payments.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Employee</t>
   </si>
   <si>
-    <t xml:space="preserve">Paid</t>
+    <t xml:space="preserve">Paisd</t>
   </si>
   <si>
     <t xml:space="preserve">Alice</t>
@@ -168,7 +168,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/sample-files/sample_payments.xlsx
+++ b/public/sample-files/sample_payments.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Employee</t>
   </si>
   <si>
-    <t xml:space="preserve">Paisd</t>
+    <t xml:space="preserve">Paid</t>
   </si>
   <si>
     <t xml:space="preserve">Alice</t>
